--- a/example_data/EMA/label_corrected/blincyto-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/blincyto-epar-product-information_en.xlsx
@@ -5436,7 +5436,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
